--- a/quanlysinhvien/sinhvientinchi/SV001/dsLopHocDangKy.xlsx
+++ b/quanlysinhvien/sinhvientinchi/SV001/dsLopHocDangKy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Học kỳ</t>
   </si>
@@ -74,40 +74,22 @@
     <t>Nguyễn Bá Ngọc</t>
   </si>
   <si>
-    <t>96123</t>
-  </si>
-  <si>
-    <t>PE1020</t>
-  </si>
-  <si>
-    <t>Giáo dục thể chất B</t>
-  </si>
-  <si>
-    <t>Thứ 3, 0800-0900</t>
-  </si>
-  <si>
-    <t>San2</t>
-  </si>
-  <si>
-    <t>Nguyễn Trung Dân</t>
-  </si>
-  <si>
-    <t>96127</t>
-  </si>
-  <si>
-    <t>MI1020</t>
-  </si>
-  <si>
-    <t>Giải tích II</t>
-  </si>
-  <si>
-    <t>Thứ 5, 0800-1150</t>
+    <t>96130</t>
+  </si>
+  <si>
+    <t>MI1030</t>
+  </si>
+  <si>
+    <t>Đại số</t>
+  </si>
+  <si>
+    <t>Thứ 6, 0735-1150</t>
   </si>
   <si>
     <t>D3-101</t>
   </si>
   <si>
-    <t>Nguyễn Xuân Thảo</t>
+    <t>Nguyễn Trung Tuấn</t>
   </si>
 </sst>
 </file>
@@ -158,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:M4"/>
+  <dimension ref="B1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -231,7 +213,7 @@
         <v>45.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -263,45 +245,10 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>

--- a/quanlysinhvien/sinhvientinchi/SV001/dsLopHocDangKy.xlsx
+++ b/quanlysinhvien/sinhvientinchi/SV001/dsLopHocDangKy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Học kỳ</t>
   </si>
@@ -74,22 +74,34 @@
     <t>Nguyễn Bá Ngọc</t>
   </si>
   <si>
-    <t>96130</t>
-  </si>
-  <si>
-    <t>MI1030</t>
-  </si>
-  <si>
-    <t>Đại số</t>
-  </si>
-  <si>
-    <t>Thứ 6, 0735-1150</t>
+    <t>96126</t>
+  </si>
+  <si>
+    <t>MI1010</t>
+  </si>
+  <si>
+    <t>Giải tích I</t>
+  </si>
+  <si>
+    <t>Thứ 3, 0645-1015</t>
   </si>
   <si>
     <t>D3-101</t>
   </si>
   <si>
-    <t>Nguyễn Trung Tuấn</t>
+    <t>Nguyễn Xuân Thảo</t>
+  </si>
+  <si>
+    <t>96127</t>
+  </si>
+  <si>
+    <t>MI1020</t>
+  </si>
+  <si>
+    <t>Giải tích II</t>
+  </si>
+  <si>
+    <t>Thứ 5, 0800-1150</t>
   </si>
 </sst>
 </file>
@@ -140,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:M3"/>
+  <dimension ref="B1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -213,7 +225,7 @@
         <v>45.0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -245,10 +257,45 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
